--- a/1.Maser budget and variance analysis.xlsx
+++ b/1.Maser budget and variance analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A273B1E-5A0F-9A4D-9543-B7176C697BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C14B49-50BB-244F-AF3F-906DF7F3E26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="9" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="7" r:id="rId1"/>
@@ -1008,7 +1008,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1139,6 +1139,11 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1148,24 +1153,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="4" tint="-0.24994659260841701"/>
@@ -1188,61 +1182,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.59996337778862885"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4732,7 +4671,7 @@
       <c r="B2" s="31"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="87" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4745,14 +4684,14 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
@@ -4900,7 +4839,7 @@
       <c r="C15" s="16">
         <v>0.9</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="91" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="11"/>
@@ -4915,7 +4854,7 @@
       <c r="C16" s="17">
         <v>0.05</v>
       </c>
-      <c r="D16" s="88"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4928,7 +4867,7 @@
       <c r="C17" s="17">
         <v>0.05</v>
       </c>
-      <c r="D17" s="88"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5726,7 +5665,7 @@
   </sheetPr>
   <dimension ref="B3:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -5751,646 +5690,646 @@
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="81"/>
-      <c r="C6" s="89" t="str">
+      <c r="C6" s="92" t="str">
         <f>IF(actual=TRUE, "Revenues and Spending Variances", "Activty Variances")</f>
         <v>Activty Variances</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-    </row>
-    <row r="7" spans="2:8" s="95" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="B7" s="94" t="s">
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+    </row>
+    <row r="7" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="B7" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="89">
         <v>1</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="89">
         <v>2</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="89">
         <v>3</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="89">
         <v>4</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="89">
         <v>5</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="89">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="96" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C58-'Act. SGA &amp; PL &amp; BS '!C58</f>
         <v>0</v>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D58-'Act. SGA &amp; PL &amp; BS '!D58</f>
         <v>0</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E58-'Act. SGA &amp; PL &amp; BS '!E58</f>
         <v>0.25200000000000244</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F58-'Act. SGA &amp; PL &amp; BS '!F58</f>
         <v>0.78876000000000346</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G58-'Act. SGA &amp; PL &amp; BS '!G58</f>
         <v>1.3680828000000034</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H58-'Act. SGA &amp; PL &amp; BS '!H58</f>
         <v>1.9925682840000007</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C59-'Act. SGA &amp; PL &amp; BS '!C59</f>
         <v>0</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D59-'Act. SGA &amp; PL &amp; BS '!D59</f>
         <v>0</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E59-'Act. SGA &amp; PL &amp; BS '!E59</f>
         <v>-3.149999999999941E-6</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F59-'Act. SGA &amp; PL &amp; BS '!F59</f>
         <v>-9.8595000000000366E-6</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G59-'Act. SGA &amp; PL &amp; BS '!G59</f>
         <v>-1.7101035000000075E-5</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H59-'Act. SGA &amp; PL &amp; BS '!H59</f>
         <v>-2.4907103549999966E-5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="97" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C60-'Act. SGA &amp; PL &amp; BS '!C60</f>
         <v>0</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D60-'Act. SGA &amp; PL &amp; BS '!D60</f>
         <v>0</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E60-'Act. SGA &amp; PL &amp; BS '!E60</f>
         <v>0.25200315000000373</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F60-'Act. SGA &amp; PL &amp; BS '!F60</f>
         <v>0.78876985950000744</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G60-'Act. SGA &amp; PL &amp; BS '!G60</f>
         <v>1.3680999010350021</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H60-'Act. SGA &amp; PL &amp; BS '!H60</f>
         <v>1.9925931911035519</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="96" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C61-'Act. SGA &amp; PL &amp; BS '!C61</f>
         <v>0</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D61-'Act. SGA &amp; PL &amp; BS '!D61</f>
         <v>-2.4771379499999995</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E61-'Act. SGA &amp; PL &amp; BS '!E61</f>
         <v>-2.5031855716463394</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F61-'Act. SGA &amp; PL &amp; BS '!F61</f>
         <v>-2.4301126003554909</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G61-'Act. SGA &amp; PL &amp; BS '!G61</f>
         <v>-2.3579506736380367</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H61-'Act. SGA &amp; PL &amp; BS '!H61</f>
         <v>-2.2762759648460875</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="96" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C62-'Act. SGA &amp; PL &amp; BS '!C62</f>
         <v>0</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D62-'Act. SGA &amp; PL &amp; BS '!D62</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E62-'Act. SGA &amp; PL &amp; BS '!E62</f>
         <v>0.59999999999999964</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F62-'Act. SGA &amp; PL &amp; BS '!F62</f>
         <v>0.90000000000000036</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G62-'Act. SGA &amp; PL &amp; BS '!G62</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H62-'Act. SGA &amp; PL &amp; BS '!H62</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="96" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C63-'Act. SGA &amp; PL &amp; BS '!C63</f>
         <v>0</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D63-'Act. SGA &amp; PL &amp; BS '!D63</f>
         <v>0.15000000000000036</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E63-'Act. SGA &amp; PL &amp; BS '!E63</f>
         <v>0.26250000000000018</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F63-'Act. SGA &amp; PL &amp; BS '!F63</f>
         <v>0.48812500000000103</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G63-'Act. SGA &amp; PL &amp; BS '!G63</f>
         <v>0.67753125000000036</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H63-'Act. SGA &amp; PL &amp; BS '!H63</f>
         <v>0.88140781250000089</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="97" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C64-'Act. SGA &amp; PL &amp; BS '!C64</f>
         <v>0</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D64-'Act. SGA &amp; PL &amp; BS '!D64</f>
         <v>2.0271379500000002</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E64-'Act. SGA &amp; PL &amp; BS '!E64</f>
         <v>1.8926887216463442</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F64-'Act. SGA &amp; PL &amp; BS '!F64</f>
         <v>1.8307574598554943</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G64-'Act. SGA &amp; PL &amp; BS '!G64</f>
         <v>1.8485193246730418</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H64-'Act. SGA &amp; PL &amp; BS '!H64</f>
         <v>1.8874613434496403</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="96" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C65-'Act. SGA &amp; PL &amp; BS '!C65</f>
         <v>0</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D65-'Act. SGA &amp; PL &amp; BS '!D65</f>
         <v>2.4771379499999995</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E65-'Act. SGA &amp; PL &amp; BS '!E65</f>
         <v>2.7551887216463449</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F65-'Act. SGA &amp; PL &amp; BS '!F65</f>
         <v>3.2188824598554966</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G65-'Act. SGA &amp; PL &amp; BS '!G65</f>
         <v>3.7260505746730388</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H65-'Act. SGA &amp; PL &amp; BS '!H65</f>
         <v>4.2688691559496412</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="96" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C66-'Act. SGA &amp; PL &amp; BS '!C66</f>
         <v>0</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D66-'Act. SGA &amp; PL &amp; BS '!D66</f>
         <v>0</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E66-'Act. SGA &amp; PL &amp; BS '!E66</f>
         <v>0</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F66-'Act. SGA &amp; PL &amp; BS '!F66</f>
         <v>0</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G66-'Act. SGA &amp; PL &amp; BS '!G66</f>
         <v>0</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H66-'Act. SGA &amp; PL &amp; BS '!H66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="96" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C67-'Act. SGA &amp; PL &amp; BS '!C67</f>
         <v>0</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D67-'Act. SGA &amp; PL &amp; BS '!D67</f>
         <v>0</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E67-'Act. SGA &amp; PL &amp; BS '!E67</f>
         <v>0</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F67-'Act. SGA &amp; PL &amp; BS '!F67</f>
         <v>0</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G67-'Act. SGA &amp; PL &amp; BS '!G67</f>
         <v>0</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H67-'Act. SGA &amp; PL &amp; BS '!H67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="96" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C68-'Act. SGA &amp; PL &amp; BS '!C68</f>
         <v>0</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D68-'Act. SGA &amp; PL &amp; BS '!D68</f>
         <v>2.0271379500000002</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E68-'Act. SGA &amp; PL &amp; BS '!E68</f>
         <v>1.8926887216463442</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F68-'Act. SGA &amp; PL &amp; BS '!F68</f>
         <v>1.8307574598554943</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G68-'Act. SGA &amp; PL &amp; BS '!G68</f>
         <v>1.8485193246730418</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H68-'Act. SGA &amp; PL &amp; BS '!H68</f>
         <v>1.8874613434496403</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="96"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-    </row>
-    <row r="20" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="96" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C70-'Act. SGA &amp; PL &amp; BS '!C70</f>
         <v>0</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D70-'Act. SGA &amp; PL &amp; BS '!D70</f>
         <v>0.44999999999999929</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E70-'Act. SGA &amp; PL &amp; BS '!E70</f>
         <v>0.86249999999999893</v>
       </c>
-      <c r="F20" s="92">
+      <c r="F20" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F70-'Act. SGA &amp; PL &amp; BS '!F70</f>
         <v>1.3881250000000023</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G70-'Act. SGA &amp; PL &amp; BS '!G70</f>
         <v>1.8775312500000005</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H70-'Act. SGA &amp; PL &amp; BS '!H70</f>
         <v>2.3814078125000009</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="96" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C71-'Act. SGA &amp; PL &amp; BS '!C71</f>
         <v>0</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D71-'Act. SGA &amp; PL &amp; BS '!D71</f>
         <v>2.0271379500000002</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E71-'Act. SGA &amp; PL &amp; BS '!E71</f>
         <v>1.8926887216463459</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F71-'Act. SGA &amp; PL &amp; BS '!F71</f>
         <v>1.8307574598554943</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G71-'Act. SGA &amp; PL &amp; BS '!G71</f>
         <v>1.8485193246730383</v>
       </c>
-      <c r="H21" s="92">
+      <c r="H21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H71-'Act. SGA &amp; PL &amp; BS '!H71</f>
         <v>1.8874613434496403</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="96"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-    </row>
-    <row r="23" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="96" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="92">
+      <c r="C23" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C73-'Act. SGA &amp; PL &amp; BS '!C73</f>
         <v>0</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D73-'Act. SGA &amp; PL &amp; BS '!D73</f>
         <v>0</v>
       </c>
-      <c r="E23" s="92">
+      <c r="E23" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E73-'Act. SGA &amp; PL &amp; BS '!E73</f>
         <v>0</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F73-'Act. SGA &amp; PL &amp; BS '!F73</f>
         <v>0</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G73-'Act. SGA &amp; PL &amp; BS '!G73</f>
         <v>0</v>
       </c>
-      <c r="H23" s="92">
+      <c r="H23" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H73-'Act. SGA &amp; PL &amp; BS '!H73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="96" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="92">
+      <c r="C24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C74-'Act. SGA &amp; PL &amp; BS '!C74</f>
         <v>0</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D74-'Act. SGA &amp; PL &amp; BS '!D74</f>
         <v>2.0271379500000002</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E74-'Act. SGA &amp; PL &amp; BS '!E74</f>
         <v>1.8926887216463459</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F74-'Act. SGA &amp; PL &amp; BS '!F74</f>
         <v>1.8307574598554943</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G74-'Act. SGA &amp; PL &amp; BS '!G74</f>
         <v>1.8485193246730383</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H74-'Act. SGA &amp; PL &amp; BS '!H74</f>
         <v>1.8874613434496403</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="96"/>
-      <c r="C25" s="92">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C75-'Act. SGA &amp; PL &amp; BS '!C75</f>
         <v>0</v>
       </c>
-      <c r="D25" s="92">
+      <c r="D25" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D75-'Act. SGA &amp; PL &amp; BS '!D75</f>
         <v>0</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E75-'Act. SGA &amp; PL &amp; BS '!E75</f>
         <v>0</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F75-'Act. SGA &amp; PL &amp; BS '!F75</f>
         <v>0</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G75-'Act. SGA &amp; PL &amp; BS '!G75</f>
         <v>0</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H75-'Act. SGA &amp; PL &amp; BS '!H75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="96" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="92">
+      <c r="C26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C76-'Act. SGA &amp; PL &amp; BS '!C76</f>
         <v>0</v>
       </c>
-      <c r="D26" s="92">
+      <c r="D26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D76-'Act. SGA &amp; PL &amp; BS '!D76</f>
         <v>-0.50678448750000005</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E76-'Act. SGA &amp; PL &amp; BS '!E76</f>
         <v>-0.47317218041158648</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F76-'Act. SGA &amp; PL &amp; BS '!F76</f>
         <v>-0.45768936496387358</v>
       </c>
-      <c r="G26" s="92">
+      <c r="G26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G76-'Act. SGA &amp; PL &amp; BS '!G76</f>
         <v>-0.46212983116825956</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H76-'Act. SGA &amp; PL &amp; BS '!H76</f>
         <v>-0.47186533586241008</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="96" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="92">
+      <c r="C27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C77-'Act. SGA &amp; PL &amp; BS '!C77</f>
         <v>0</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D77-'Act. SGA &amp; PL &amp; BS '!D77</f>
         <v>1.5203534624999993</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E77-'Act. SGA &amp; PL &amp; BS '!E77</f>
         <v>1.419516541234759</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F77-'Act. SGA &amp; PL &amp; BS '!F77</f>
         <v>1.3730680948916199</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G77-'Act. SGA &amp; PL &amp; BS '!G77</f>
         <v>1.3863894935047778</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H77-'Act. SGA &amp; PL &amp; BS '!H77</f>
         <v>1.4155960075872294</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-    </row>
-    <row r="29" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="96"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-    </row>
-    <row r="30" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="96"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-    </row>
-    <row r="31" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="96"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-    </row>
-    <row r="32" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="96"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-    </row>
-    <row r="33" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="96"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-    </row>
-    <row r="34" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-    </row>
-    <row r="35" spans="2:8" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="96"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -6441,12 +6380,12 @@
     </row>
     <row r="3" spans="2:9" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="87" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="87" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6899,18 +6838,18 @@
         <v>Compagny Incognito, by eliediwambuena</v>
       </c>
       <c r="D2" s="71"/>
-      <c r="G2" s="91"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="87" t="str">
+      <c r="C4" s="90" t="str">
         <f>Assumptions!C7</f>
         <v>6-MONTHS PLAN</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="str">
@@ -7140,14 +7079,14 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
@@ -7313,14 +7252,14 @@
       <c r="H23" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
     </row>
     <row r="27" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B27" s="30" t="s">
@@ -7571,14 +7510,14 @@
       <c r="G2" s="80"/>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
@@ -8129,14 +8068,14 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
@@ -8315,14 +8254,14 @@
     </row>
     <row r="40" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
     </row>
     <row r="41" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B41" s="30" t="s">
@@ -11162,7 +11101,7 @@
   </sheetPr>
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -11978,18 +11917,18 @@
         <v>Compagny Incognito, by eliediwambuena</v>
       </c>
       <c r="D2" s="71"/>
-      <c r="G2" s="91"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="87" t="str">
+      <c r="C4" s="90" t="str">
         <f>Assumptions!C7</f>
         <v>6-MONTHS PLAN</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="str">
@@ -12219,14 +12158,14 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
@@ -12392,14 +12331,14 @@
       <c r="H23" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
     </row>
     <row r="27" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B27" s="30" t="s">
@@ -12440,7 +12379,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D28" s="73">
-        <f t="shared" ref="C28:H28" si="5">D8</f>
+        <f t="shared" ref="D28:H28" si="5">D8</f>
         <v>4.3050000000000006</v>
       </c>
       <c r="E28" s="73">
@@ -12650,14 +12589,14 @@
       <c r="G2" s="80"/>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
@@ -13208,14 +13147,14 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
@@ -13394,14 +13333,14 @@
     </row>
     <row r="40" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
     </row>
     <row r="41" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B41" s="30" t="s">

--- a/1.Maser budget and variance analysis.xlsx
+++ b/1.Maser budget and variance analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C14B49-50BB-244F-AF3F-906DF7F3E26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8804F8D-F8D6-8D44-8444-C51B72ACDAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
@@ -9031,8 +9031,8 @@
   </sheetPr>
   <dimension ref="B1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:H77"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
